--- a/Code/Results/Cases/Case_1_249/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_1_249/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C2">
-        <v>1.008953211636811</v>
+        <v>1.032960743110995</v>
       </c>
       <c r="D2">
-        <v>1.042370659568667</v>
+        <v>1.049893678851363</v>
       </c>
       <c r="E2">
-        <v>1.025493070933561</v>
+        <v>1.043039596194371</v>
       </c>
       <c r="F2">
-        <v>1.03945370880056</v>
+        <v>1.055671848741947</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.054844225665011</v>
+        <v>1.042264514150976</v>
       </c>
       <c r="J2">
-        <v>1.030869392029058</v>
+        <v>1.038088090622999</v>
       </c>
       <c r="K2">
-        <v>1.053269652912086</v>
+        <v>1.052649469556411</v>
       </c>
       <c r="L2">
-        <v>1.036608313910908</v>
+        <v>1.045814585829269</v>
       </c>
       <c r="M2">
-        <v>1.050389449976899</v>
+        <v>1.058411664113584</v>
       </c>
       <c r="N2">
-        <v>1.014188595857106</v>
+        <v>1.016678052744064</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C3">
-        <v>1.012634469646346</v>
+        <v>1.033747246808538</v>
       </c>
       <c r="D3">
-        <v>1.04504897513494</v>
+        <v>1.050477735552251</v>
       </c>
       <c r="E3">
-        <v>1.028472859653388</v>
+        <v>1.043724726960093</v>
       </c>
       <c r="F3">
-        <v>1.042661384327724</v>
+        <v>1.05640656365925</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.055951782647301</v>
+        <v>1.042441859091367</v>
       </c>
       <c r="J3">
-        <v>1.032786533372398</v>
+        <v>1.038517935411993</v>
       </c>
       <c r="K3">
-        <v>1.055136152564084</v>
+        <v>1.053046452851838</v>
       </c>
       <c r="L3">
-        <v>1.03875393924252</v>
+        <v>1.046310999899279</v>
       </c>
       <c r="M3">
-        <v>1.05277602152606</v>
+        <v>1.058960067476547</v>
       </c>
       <c r="N3">
-        <v>1.014829176358552</v>
+        <v>1.016821079793987</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C4">
-        <v>1.014974715578725</v>
+        <v>1.034256856724133</v>
       </c>
       <c r="D4">
-        <v>1.046753134255015</v>
+        <v>1.050856011286234</v>
       </c>
       <c r="E4">
-        <v>1.030372660519391</v>
+        <v>1.044169021881312</v>
       </c>
       <c r="F4">
-        <v>1.044705522294946</v>
+        <v>1.056882902892485</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.056645777268657</v>
+        <v>1.042555507434947</v>
       </c>
       <c r="J4">
-        <v>1.034002971297615</v>
+        <v>1.038796080100585</v>
       </c>
       <c r="K4">
-        <v>1.056318227494837</v>
+        <v>1.053302978216569</v>
       </c>
       <c r="L4">
-        <v>1.040117829392579</v>
+        <v>1.046632501993623</v>
       </c>
       <c r="M4">
-        <v>1.054292746709018</v>
+        <v>1.059315179211594</v>
       </c>
       <c r="N4">
-        <v>1.015235570026591</v>
+        <v>1.016913607024729</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C5">
-        <v>1.015948843253301</v>
+        <v>1.034471259905748</v>
       </c>
       <c r="D5">
-        <v>1.047462801527998</v>
+        <v>1.051015120614056</v>
       </c>
       <c r="E5">
-        <v>1.031164737678518</v>
+        <v>1.044356033535002</v>
       </c>
       <c r="F5">
-        <v>1.045557546299765</v>
+        <v>1.05708337623403</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.056932190721117</v>
+        <v>1.042603019563173</v>
       </c>
       <c r="J5">
-        <v>1.034508731197507</v>
+        <v>1.038913012301895</v>
       </c>
       <c r="K5">
-        <v>1.056809145327833</v>
+        <v>1.05341073630811</v>
       </c>
       <c r="L5">
-        <v>1.040685490014372</v>
+        <v>1.046767729102488</v>
       </c>
       <c r="M5">
-        <v>1.054923935307568</v>
+        <v>1.059464528183187</v>
       </c>
       <c r="N5">
-        <v>1.015404521129262</v>
+        <v>1.016952500003578</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C6">
-        <v>1.016111842266669</v>
+        <v>1.034507268657329</v>
       </c>
       <c r="D6">
-        <v>1.047581565706946</v>
+        <v>1.051041840531142</v>
       </c>
       <c r="E6">
-        <v>1.031297349084074</v>
+        <v>1.04438744704674</v>
       </c>
       <c r="F6">
-        <v>1.045700180509113</v>
+        <v>1.057117049446034</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.056979969955939</v>
+        <v>1.042610981454522</v>
       </c>
       <c r="J6">
-        <v>1.034593324135811</v>
+        <v>1.03893264570396</v>
       </c>
       <c r="K6">
-        <v>1.05689122260411</v>
+        <v>1.053428824326751</v>
       </c>
       <c r="L6">
-        <v>1.04078047134875</v>
+        <v>1.046790438249513</v>
       </c>
       <c r="M6">
-        <v>1.05502954115848</v>
+        <v>1.059489607998942</v>
       </c>
       <c r="N6">
-        <v>1.015432778765821</v>
+        <v>1.01695902997116</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C7">
-        <v>1.014987769705473</v>
+        <v>1.034259720951134</v>
       </c>
       <c r="D7">
-        <v>1.04676264322854</v>
+        <v>1.05085813699243</v>
       </c>
       <c r="E7">
-        <v>1.030383269987304</v>
+        <v>1.044171519838729</v>
       </c>
       <c r="F7">
-        <v>1.044716935634488</v>
+        <v>1.056885580764131</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.056649625218371</v>
+        <v>1.04255614333926</v>
       </c>
       <c r="J7">
-        <v>1.034009751235812</v>
+        <v>1.038797642555394</v>
       </c>
       <c r="K7">
-        <v>1.056324810686196</v>
+        <v>1.053304418422056</v>
       </c>
       <c r="L7">
-        <v>1.040125436790244</v>
+        <v>1.046634308641098</v>
       </c>
       <c r="M7">
-        <v>1.054301205799363</v>
+        <v>1.059317174586362</v>
       </c>
       <c r="N7">
-        <v>1.015237834956022</v>
+        <v>1.01691412673671</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C8">
-        <v>1.010206137462593</v>
+        <v>1.03322640183709</v>
       </c>
       <c r="D8">
-        <v>1.043281886051554</v>
+        <v>1.050090989428937</v>
       </c>
       <c r="E8">
-        <v>1.02650607994134</v>
+        <v>1.043270937381792</v>
       </c>
       <c r="F8">
-        <v>1.04054438843175</v>
+        <v>1.055919955291077</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.055223275845288</v>
+        <v>1.042324677085119</v>
       </c>
       <c r="J8">
-        <v>1.031522367639948</v>
+        <v>1.038233356552206</v>
       </c>
       <c r="K8">
-        <v>1.053905835342918</v>
+        <v>1.052783703339862</v>
       </c>
       <c r="L8">
-        <v>1.037338591420344</v>
+        <v>1.045982290513611</v>
       </c>
       <c r="M8">
-        <v>1.051201800015975</v>
+        <v>1.058596945084107</v>
       </c>
       <c r="N8">
-        <v>1.0144067879405</v>
+        <v>1.016726393430077</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C9">
-        <v>1.001446765872774</v>
+        <v>1.031410924882021</v>
       </c>
       <c r="D9">
-        <v>1.036919817843833</v>
+        <v>1.048741964175743</v>
       </c>
       <c r="E9">
-        <v>1.019448583604147</v>
+        <v>1.041691511055724</v>
       </c>
       <c r="F9">
-        <v>1.032941847346184</v>
+        <v>1.054225616714031</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.05253224296466</v>
+        <v>1.04190837685561</v>
       </c>
       <c r="J9">
-        <v>1.026948538346024</v>
+        <v>1.037239120965103</v>
       </c>
       <c r="K9">
-        <v>1.049441007072274</v>
+        <v>1.051863528702778</v>
       </c>
       <c r="L9">
-        <v>1.032233809397103</v>
+        <v>1.04483563349354</v>
       </c>
       <c r="M9">
-        <v>1.045522155220494</v>
+        <v>1.057329864374096</v>
       </c>
       <c r="N9">
-        <v>1.012878259536318</v>
+        <v>1.016395445049912</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C10">
-        <v>0.9953630101627804</v>
+        <v>1.030204325133539</v>
       </c>
       <c r="D10">
-        <v>1.032514171913092</v>
+        <v>1.047844610616016</v>
       </c>
       <c r="E10">
-        <v>1.014579650186292</v>
+        <v>1.040643734295759</v>
       </c>
       <c r="F10">
-        <v>1.027692021873859</v>
+        <v>1.053101041899885</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.050612906337067</v>
+        <v>1.041625233042663</v>
       </c>
       <c r="J10">
-        <v>1.023761818693473</v>
+        <v>1.036576450776833</v>
       </c>
       <c r="K10">
-        <v>1.046320181616397</v>
+        <v>1.051248416809834</v>
       </c>
       <c r="L10">
-        <v>1.028690561368153</v>
+        <v>1.044072822990617</v>
       </c>
       <c r="M10">
-        <v>1.041578663164686</v>
+        <v>1.056486632889325</v>
       </c>
       <c r="N10">
-        <v>1.011813131240496</v>
+        <v>1.016174748527448</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C11">
-        <v>0.9926660299132536</v>
+        <v>1.029682759745985</v>
       </c>
       <c r="D11">
-        <v>1.030565011178286</v>
+        <v>1.047456546247752</v>
       </c>
       <c r="E11">
-        <v>1.012429538533663</v>
+        <v>1.040191288376832</v>
       </c>
       <c r="F11">
-        <v>1.0253725881423</v>
+        <v>1.052615298774534</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.049750688945108</v>
+        <v>1.041501309692325</v>
       </c>
       <c r="J11">
-        <v>1.022347125729288</v>
+        <v>1.036289560742214</v>
       </c>
       <c r="K11">
-        <v>1.044932652492891</v>
+        <v>1.050981691687663</v>
       </c>
       <c r="L11">
-        <v>1.027120797960208</v>
+        <v>1.043742923357116</v>
       </c>
       <c r="M11">
-        <v>1.039831368800189</v>
+        <v>1.056121880151877</v>
       </c>
       <c r="N11">
-        <v>1.011340270308768</v>
+        <v>1.016079175330187</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C12">
-        <v>0.9916544069470129</v>
+        <v>1.029489164311208</v>
       </c>
       <c r="D12">
-        <v>1.029834547421586</v>
+        <v>1.04731247844866</v>
       </c>
       <c r="E12">
-        <v>1.011624342902296</v>
+        <v>1.040023419467094</v>
       </c>
       <c r="F12">
-        <v>1.024503817735608</v>
+        <v>1.052435055498815</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.049425618847551</v>
+        <v>1.041455081629945</v>
       </c>
       <c r="J12">
-        <v>1.021816215580966</v>
+        <v>1.03618300598035</v>
       </c>
       <c r="K12">
-        <v>1.044411648261681</v>
+        <v>1.050882562933505</v>
       </c>
       <c r="L12">
-        <v>1.026532176727643</v>
+        <v>1.043620445993293</v>
       </c>
       <c r="M12">
-        <v>1.039176153427502</v>
+        <v>1.055986452480572</v>
       </c>
       <c r="N12">
-        <v>1.0111628134698</v>
+        <v>1.01604367415652</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C13">
-        <v>0.9918718561310477</v>
+        <v>1.029530684950973</v>
       </c>
       <c r="D13">
-        <v>1.029991530397092</v>
+        <v>1.04734337798095</v>
       </c>
       <c r="E13">
-        <v>1.011797360814951</v>
+        <v>1.040059419302325</v>
       </c>
       <c r="F13">
-        <v>1.024690503818235</v>
+        <v>1.052473709959787</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.049495567000395</v>
+        <v>1.041465006624573</v>
       </c>
       <c r="J13">
-        <v>1.021930346644771</v>
+        <v>1.036205861910402</v>
       </c>
       <c r="K13">
-        <v>1.044523662431457</v>
+        <v>1.050903828859147</v>
       </c>
       <c r="L13">
-        <v>1.026658692155229</v>
+        <v>1.043646714970079</v>
       </c>
       <c r="M13">
-        <v>1.039316983272472</v>
+        <v>1.056015499533631</v>
       </c>
       <c r="N13">
-        <v>1.011200961781213</v>
+        <v>1.016051289317635</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C14">
-        <v>0.9925826122275709</v>
+        <v>1.029666754277572</v>
       </c>
       <c r="D14">
-        <v>1.030504763916604</v>
+        <v>1.047444635983965</v>
       </c>
       <c r="E14">
-        <v>1.012363115970483</v>
+        <v>1.040177408399449</v>
       </c>
       <c r="F14">
-        <v>1.025300924485508</v>
+        <v>1.052600396055694</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.049723917311226</v>
+        <v>1.041497492488016</v>
       </c>
       <c r="J14">
-        <v>1.022303352490898</v>
+        <v>1.036280752701386</v>
       </c>
       <c r="K14">
-        <v>1.044889701702267</v>
+        <v>1.050973498790292</v>
       </c>
       <c r="L14">
-        <v>1.027072256612161</v>
+        <v>1.043732798064991</v>
       </c>
       <c r="M14">
-        <v>1.039777336144663</v>
+        <v>1.056110684469905</v>
       </c>
       <c r="N14">
-        <v>1.011325639086379</v>
+        <v>1.016076240810326</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C15">
-        <v>0.9930192148200467</v>
+        <v>1.029750609314674</v>
       </c>
       <c r="D15">
-        <v>1.030820121246113</v>
+        <v>1.047507034593264</v>
       </c>
       <c r="E15">
-        <v>1.012710820545667</v>
+        <v>1.040250130569542</v>
       </c>
       <c r="F15">
-        <v>1.025676058071983</v>
+        <v>1.052678475904236</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.049863970962537</v>
+        <v>1.041517481969548</v>
       </c>
       <c r="J15">
-        <v>1.022532448030915</v>
+        <v>1.036326896619364</v>
       </c>
       <c r="K15">
-        <v>1.045114481205609</v>
+        <v>1.051016417470733</v>
       </c>
       <c r="L15">
-        <v>1.027326326723712</v>
+        <v>1.043785844970771</v>
       </c>
       <c r="M15">
-        <v>1.040060147332089</v>
+        <v>1.056169338756149</v>
       </c>
       <c r="N15">
-        <v>1.011402214365787</v>
+        <v>1.01609161412631</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C16">
-        <v>0.9955406433674635</v>
+        <v>1.03023895884184</v>
       </c>
       <c r="D16">
-        <v>1.03264263820009</v>
+        <v>1.047870375793902</v>
       </c>
       <c r="E16">
-        <v>1.01472144247254</v>
+        <v>1.040673788121741</v>
       </c>
       <c r="F16">
-        <v>1.027844957178609</v>
+        <v>1.053133304658265</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.050669462271351</v>
+        <v>1.04163342969172</v>
       </c>
       <c r="J16">
-        <v>1.023854956837001</v>
+        <v>1.036595491905947</v>
       </c>
       <c r="K16">
-        <v>1.046411489965191</v>
+        <v>1.051266110655466</v>
       </c>
       <c r="L16">
-        <v>1.028793975853727</v>
+        <v>1.044094725956487</v>
       </c>
       <c r="M16">
-        <v>1.041693769408355</v>
+        <v>1.056510848323079</v>
       </c>
       <c r="N16">
-        <v>1.011844262518621</v>
+        <v>1.01618109123399</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C17">
-        <v>0.9971051942749792</v>
+        <v>1.030545529978572</v>
       </c>
       <c r="D17">
-        <v>1.03377459188512</v>
+        <v>1.048098424326771</v>
       </c>
       <c r="E17">
-        <v>1.015971271074025</v>
+        <v>1.040939873010456</v>
       </c>
       <c r="F17">
-        <v>1.029192878154061</v>
+        <v>1.05341893099555</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.051166303296916</v>
+        <v>1.041705807836144</v>
       </c>
       <c r="J17">
-        <v>1.02467507192179</v>
+        <v>1.036763989135365</v>
       </c>
       <c r="K17">
-        <v>1.047215257941192</v>
+        <v>1.051422636600775</v>
       </c>
       <c r="L17">
-        <v>1.02970494353987</v>
+        <v>1.044288587688978</v>
       </c>
       <c r="M17">
-        <v>1.042707705356934</v>
+        <v>1.056725169161483</v>
       </c>
       <c r="N17">
-        <v>1.012118383302292</v>
+        <v>1.016237215490421</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C18">
-        <v>0.9980117533853439</v>
+        <v>1.030724434469759</v>
       </c>
       <c r="D18">
-        <v>1.034430854259758</v>
+        <v>1.048231488858317</v>
       </c>
       <c r="E18">
-        <v>1.016696257343687</v>
+        <v>1.041095196129485</v>
       </c>
       <c r="F18">
-        <v>1.029974657621377</v>
+        <v>1.053585648136212</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.051453107408481</v>
+        <v>1.041747897339369</v>
       </c>
       <c r="J18">
-        <v>1.025150085287958</v>
+        <v>1.036862275501515</v>
       </c>
       <c r="K18">
-        <v>1.047680602706255</v>
+        <v>1.051513898997492</v>
       </c>
       <c r="L18">
-        <v>1.030232883480526</v>
+        <v>1.044401702671205</v>
       </c>
       <c r="M18">
-        <v>1.043295298692515</v>
+        <v>1.056850214655786</v>
       </c>
       <c r="N18">
-        <v>1.012277153472213</v>
+        <v>1.016269950807717</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C19">
-        <v>0.9983198586528668</v>
+        <v>1.030785450931185</v>
       </c>
       <c r="D19">
-        <v>1.034653953163293</v>
+        <v>1.048276868447732</v>
       </c>
       <c r="E19">
-        <v>1.016942785256876</v>
+        <v>1.041148177641015</v>
       </c>
       <c r="F19">
-        <v>1.030240479517824</v>
+        <v>1.05364251400107</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.05155039596193</v>
+        <v>1.041762227127161</v>
       </c>
       <c r="J19">
-        <v>1.025311490903077</v>
+        <v>1.03689578938172</v>
       </c>
       <c r="K19">
-        <v>1.047838688280862</v>
+        <v>1.051545010871066</v>
       </c>
       <c r="L19">
-        <v>1.030412324674178</v>
+        <v>1.044440278474748</v>
       </c>
       <c r="M19">
-        <v>1.043495011744309</v>
+        <v>1.056892857950017</v>
       </c>
       <c r="N19">
-        <v>1.012331101951753</v>
+        <v>1.016281112518349</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C20">
-        <v>0.9969379581527692</v>
+        <v>1.030512628811835</v>
       </c>
       <c r="D20">
-        <v>1.033653557963213</v>
+        <v>1.048073951930298</v>
       </c>
       <c r="E20">
-        <v>1.015837593716763</v>
+        <v>1.040911312161205</v>
       </c>
       <c r="F20">
-        <v>1.029048720255324</v>
+        <v>1.053388273964312</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.051113307624532</v>
+        <v>1.041698055521608</v>
       </c>
       <c r="J20">
-        <v>1.024587428816562</v>
+        <v>1.036745910472617</v>
       </c>
       <c r="K20">
-        <v>1.047129382393857</v>
+        <v>1.051405846616304</v>
       </c>
       <c r="L20">
-        <v>1.029607559710134</v>
+        <v>1.044267784143903</v>
       </c>
       <c r="M20">
-        <v>1.042599316146936</v>
+        <v>1.056702170850172</v>
       </c>
       <c r="N20">
-        <v>1.012089089022091</v>
+        <v>1.016231193989983</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C21">
-        <v>0.992373587587274</v>
+        <v>1.029626681450275</v>
       </c>
       <c r="D21">
-        <v>1.03035380959868</v>
+        <v>1.047414815894719</v>
       </c>
       <c r="E21">
-        <v>1.012196698133908</v>
+        <v>1.040142658299028</v>
       </c>
       <c r="F21">
-        <v>1.025121372741643</v>
+        <v>1.052563085078385</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.049656807508973</v>
+        <v>1.041487931652965</v>
       </c>
       <c r="J21">
-        <v>1.022193663114759</v>
+        <v>1.036258698971338</v>
       </c>
       <c r="K21">
-        <v>1.0447820687048</v>
+        <v>1.050952984242403</v>
       </c>
       <c r="L21">
-        <v>1.026950626858848</v>
+        <v>1.043707447013411</v>
       </c>
       <c r="M21">
-        <v>1.039641946485435</v>
+        <v>1.056082653270052</v>
       </c>
       <c r="N21">
-        <v>1.011288975372226</v>
+        <v>1.016068893242194</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C22">
-        <v>0.9894466000657242</v>
+        <v>1.02907044577119</v>
       </c>
       <c r="D22">
-        <v>1.028241638733266</v>
+        <v>1.047000835055967</v>
       </c>
       <c r="E22">
-        <v>1.009869494710854</v>
+        <v>1.039660473400191</v>
       </c>
       <c r="F22">
-        <v>1.022610114381208</v>
+        <v>1.052045318000175</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.048713184702496</v>
+        <v>1.041354676732488</v>
       </c>
       <c r="J22">
-        <v>1.020657083927405</v>
+        <v>1.035952422346978</v>
       </c>
       <c r="K22">
-        <v>1.04327364337478</v>
+        <v>1.05066793328199</v>
       </c>
       <c r="L22">
-        <v>1.025247938085234</v>
+        <v>1.043355500605696</v>
       </c>
       <c r="M22">
-        <v>1.037746584436537</v>
+        <v>1.055693472929137</v>
       </c>
       <c r="N22">
-        <v>1.010775375261597</v>
+        <v>1.01596684258765</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C23">
-        <v>0.9910038215274296</v>
+        <v>1.029365240870194</v>
       </c>
       <c r="D23">
-        <v>1.0293649723025</v>
+        <v>1.047220251324566</v>
       </c>
       <c r="E23">
-        <v>1.011106885548263</v>
+        <v>1.039915983932153</v>
       </c>
       <c r="F23">
-        <v>1.023945458010505</v>
+        <v>1.052319694705453</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.04921610233871</v>
+        <v>1.041425425595434</v>
       </c>
       <c r="J23">
-        <v>1.021474710846887</v>
+        <v>1.03611477993596</v>
       </c>
       <c r="K23">
-        <v>1.044076437506692</v>
+        <v>1.050819073849615</v>
       </c>
       <c r="L23">
-        <v>1.026153686494167</v>
+        <v>1.043542039418112</v>
       </c>
       <c r="M23">
-        <v>1.038754836394746</v>
+        <v>1.055899752429003</v>
       </c>
       <c r="N23">
-        <v>1.011048665625216</v>
+        <v>1.016020941949926</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C24">
-        <v>0.9970135435213701</v>
+        <v>1.030527495165124</v>
       </c>
       <c r="D24">
-        <v>1.033708260288147</v>
+        <v>1.048085009805822</v>
       </c>
       <c r="E24">
-        <v>1.015898009157572</v>
+        <v>1.040924217208155</v>
       </c>
       <c r="F24">
-        <v>1.029113872705639</v>
+        <v>1.053402126198595</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.051137263333638</v>
+        <v>1.041701558852752</v>
       </c>
       <c r="J24">
-        <v>1.024627041288972</v>
+        <v>1.036754079427528</v>
       </c>
       <c r="K24">
-        <v>1.047168196597462</v>
+        <v>1.051413433400675</v>
       </c>
       <c r="L24">
-        <v>1.029651573800855</v>
+        <v>1.044277184251039</v>
       </c>
       <c r="M24">
-        <v>1.042648304349561</v>
+        <v>1.056712562686807</v>
       </c>
       <c r="N24">
-        <v>1.012102329302453</v>
+        <v>1.016233914850029</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C25">
-        <v>1.003752785796697</v>
+        <v>1.031879622050186</v>
       </c>
       <c r="D25">
-        <v>1.038592708418101</v>
+        <v>1.049090376606059</v>
       </c>
       <c r="E25">
-        <v>1.021301064763761</v>
+        <v>1.042098927522726</v>
       </c>
       <c r="F25">
-        <v>1.034938249363373</v>
+        <v>1.054662774994585</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.053249576067945</v>
+        <v>1.042016993373013</v>
       </c>
       <c r="J25">
-        <v>1.028154510420611</v>
+        <v>1.037496133532618</v>
       </c>
       <c r="K25">
-        <v>1.050620069679515</v>
+        <v>1.052101715549798</v>
       </c>
       <c r="L25">
-        <v>1.033577469393076</v>
+        <v>1.04513179176454</v>
       </c>
       <c r="M25">
-        <v>1.04701736669395</v>
+        <v>1.057657180477952</v>
       </c>
       <c r="N25">
-        <v>1.01328131834035</v>
+        <v>1.016481016567111</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_1_249/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_1_249/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.032960743110995</v>
+        <v>1.008953211636811</v>
       </c>
       <c r="D2">
-        <v>1.049893678851363</v>
+        <v>1.042370659568667</v>
       </c>
       <c r="E2">
-        <v>1.043039596194371</v>
+        <v>1.025493070933561</v>
       </c>
       <c r="F2">
-        <v>1.055671848741947</v>
+        <v>1.03945370880056</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.042264514150976</v>
+        <v>1.054844225665011</v>
       </c>
       <c r="J2">
-        <v>1.038088090622999</v>
+        <v>1.030869392029058</v>
       </c>
       <c r="K2">
-        <v>1.052649469556411</v>
+        <v>1.053269652912085</v>
       </c>
       <c r="L2">
-        <v>1.045814585829269</v>
+        <v>1.036608313910908</v>
       </c>
       <c r="M2">
-        <v>1.058411664113584</v>
+        <v>1.050389449976899</v>
       </c>
       <c r="N2">
-        <v>1.016678052744064</v>
+        <v>1.014188595857106</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.033747246808538</v>
+        <v>1.012634469646345</v>
       </c>
       <c r="D3">
-        <v>1.050477735552251</v>
+        <v>1.045048975134939</v>
       </c>
       <c r="E3">
-        <v>1.043724726960093</v>
+        <v>1.028472859653388</v>
       </c>
       <c r="F3">
-        <v>1.05640656365925</v>
+        <v>1.042661384327724</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.042441859091367</v>
+        <v>1.055951782647301</v>
       </c>
       <c r="J3">
-        <v>1.038517935411993</v>
+        <v>1.032786533372397</v>
       </c>
       <c r="K3">
-        <v>1.053046452851838</v>
+        <v>1.055136152564083</v>
       </c>
       <c r="L3">
-        <v>1.046310999899279</v>
+        <v>1.03875393924252</v>
       </c>
       <c r="M3">
-        <v>1.058960067476547</v>
+        <v>1.05277602152606</v>
       </c>
       <c r="N3">
-        <v>1.016821079793987</v>
+        <v>1.014829176358552</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.034256856724133</v>
+        <v>1.014974715578725</v>
       </c>
       <c r="D4">
-        <v>1.050856011286234</v>
+        <v>1.046753134255015</v>
       </c>
       <c r="E4">
-        <v>1.044169021881312</v>
+        <v>1.030372660519392</v>
       </c>
       <c r="F4">
-        <v>1.056882902892485</v>
+        <v>1.044705522294946</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.042555507434947</v>
+        <v>1.056645777268657</v>
       </c>
       <c r="J4">
-        <v>1.038796080100585</v>
+        <v>1.034002971297616</v>
       </c>
       <c r="K4">
-        <v>1.053302978216569</v>
+        <v>1.056318227494838</v>
       </c>
       <c r="L4">
-        <v>1.046632501993623</v>
+        <v>1.04011782939258</v>
       </c>
       <c r="M4">
-        <v>1.059315179211594</v>
+        <v>1.054292746709019</v>
       </c>
       <c r="N4">
-        <v>1.016913607024729</v>
+        <v>1.015235570026591</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.034471259905748</v>
+        <v>1.0159488432533</v>
       </c>
       <c r="D5">
-        <v>1.051015120614056</v>
+        <v>1.047462801527998</v>
       </c>
       <c r="E5">
-        <v>1.044356033535002</v>
+        <v>1.031164737678518</v>
       </c>
       <c r="F5">
-        <v>1.05708337623403</v>
+        <v>1.045557546299764</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.042603019563173</v>
+        <v>1.056932190721117</v>
       </c>
       <c r="J5">
-        <v>1.038913012301895</v>
+        <v>1.034508731197506</v>
       </c>
       <c r="K5">
-        <v>1.05341073630811</v>
+        <v>1.056809145327833</v>
       </c>
       <c r="L5">
-        <v>1.046767729102488</v>
+        <v>1.040685490014371</v>
       </c>
       <c r="M5">
-        <v>1.059464528183187</v>
+        <v>1.054923935307567</v>
       </c>
       <c r="N5">
-        <v>1.016952500003578</v>
+        <v>1.015404521129261</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.034507268657329</v>
+        <v>1.016111842266668</v>
       </c>
       <c r="D6">
-        <v>1.051041840531142</v>
+        <v>1.047581565706946</v>
       </c>
       <c r="E6">
-        <v>1.04438744704674</v>
+        <v>1.031297349084074</v>
       </c>
       <c r="F6">
-        <v>1.057117049446034</v>
+        <v>1.045700180509113</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.042610981454522</v>
+        <v>1.056979969955939</v>
       </c>
       <c r="J6">
-        <v>1.03893264570396</v>
+        <v>1.03459332413581</v>
       </c>
       <c r="K6">
-        <v>1.053428824326751</v>
+        <v>1.056891222604111</v>
       </c>
       <c r="L6">
-        <v>1.046790438249513</v>
+        <v>1.04078047134875</v>
       </c>
       <c r="M6">
-        <v>1.059489607998942</v>
+        <v>1.05502954115848</v>
       </c>
       <c r="N6">
-        <v>1.01695902997116</v>
+        <v>1.015432778765821</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.034259720951134</v>
+        <v>1.014987769705473</v>
       </c>
       <c r="D7">
-        <v>1.05085813699243</v>
+        <v>1.046762643228541</v>
       </c>
       <c r="E7">
-        <v>1.044171519838729</v>
+        <v>1.030383269987304</v>
       </c>
       <c r="F7">
-        <v>1.056885580764131</v>
+        <v>1.044716935634488</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.04255614333926</v>
+        <v>1.056649625218371</v>
       </c>
       <c r="J7">
-        <v>1.038797642555394</v>
+        <v>1.034009751235812</v>
       </c>
       <c r="K7">
-        <v>1.053304418422056</v>
+        <v>1.056324810686196</v>
       </c>
       <c r="L7">
-        <v>1.046634308641098</v>
+        <v>1.040125436790244</v>
       </c>
       <c r="M7">
-        <v>1.059317174586362</v>
+        <v>1.054301205799363</v>
       </c>
       <c r="N7">
-        <v>1.01691412673671</v>
+        <v>1.015237834956021</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.03322640183709</v>
+        <v>1.010206137462592</v>
       </c>
       <c r="D8">
-        <v>1.050090989428937</v>
+        <v>1.043281886051554</v>
       </c>
       <c r="E8">
-        <v>1.043270937381792</v>
+        <v>1.026506079941339</v>
       </c>
       <c r="F8">
-        <v>1.055919955291077</v>
+        <v>1.040544388431749</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.042324677085119</v>
+        <v>1.055223275845287</v>
       </c>
       <c r="J8">
-        <v>1.038233356552206</v>
+        <v>1.031522367639947</v>
       </c>
       <c r="K8">
-        <v>1.052783703339862</v>
+        <v>1.053905835342917</v>
       </c>
       <c r="L8">
-        <v>1.045982290513611</v>
+        <v>1.037338591420344</v>
       </c>
       <c r="M8">
-        <v>1.058596945084107</v>
+        <v>1.051201800015975</v>
       </c>
       <c r="N8">
-        <v>1.016726393430077</v>
+        <v>1.0144067879405</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C9">
-        <v>1.031410924882021</v>
+        <v>1.001446765872774</v>
       </c>
       <c r="D9">
-        <v>1.048741964175743</v>
+        <v>1.036919817843832</v>
       </c>
       <c r="E9">
-        <v>1.041691511055724</v>
+        <v>1.019448583604147</v>
       </c>
       <c r="F9">
-        <v>1.054225616714031</v>
+        <v>1.032941847346184</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.04190837685561</v>
+        <v>1.05253224296466</v>
       </c>
       <c r="J9">
-        <v>1.037239120965103</v>
+        <v>1.026948538346024</v>
       </c>
       <c r="K9">
-        <v>1.051863528702778</v>
+        <v>1.049441007072274</v>
       </c>
       <c r="L9">
-        <v>1.04483563349354</v>
+        <v>1.032233809397102</v>
       </c>
       <c r="M9">
-        <v>1.057329864374096</v>
+        <v>1.045522155220494</v>
       </c>
       <c r="N9">
-        <v>1.016395445049912</v>
+        <v>1.012878259536318</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C10">
-        <v>1.030204325133539</v>
+        <v>0.9953630101627794</v>
       </c>
       <c r="D10">
-        <v>1.047844610616016</v>
+        <v>1.032514171913091</v>
       </c>
       <c r="E10">
-        <v>1.040643734295759</v>
+        <v>1.014579650186291</v>
       </c>
       <c r="F10">
-        <v>1.053101041899885</v>
+        <v>1.027692021873858</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.041625233042663</v>
+        <v>1.050612906337066</v>
       </c>
       <c r="J10">
-        <v>1.036576450776833</v>
+        <v>1.023761818693473</v>
       </c>
       <c r="K10">
-        <v>1.051248416809834</v>
+        <v>1.046320181616396</v>
       </c>
       <c r="L10">
-        <v>1.044072822990617</v>
+        <v>1.028690561368152</v>
       </c>
       <c r="M10">
-        <v>1.056486632889325</v>
+        <v>1.041578663164684</v>
       </c>
       <c r="N10">
-        <v>1.016174748527448</v>
+        <v>1.011813131240496</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C11">
-        <v>1.029682759745985</v>
+        <v>0.9926660299132537</v>
       </c>
       <c r="D11">
-        <v>1.047456546247752</v>
+        <v>1.030565011178286</v>
       </c>
       <c r="E11">
-        <v>1.040191288376832</v>
+        <v>1.012429538533663</v>
       </c>
       <c r="F11">
-        <v>1.052615298774534</v>
+        <v>1.0253725881423</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.041501309692325</v>
+        <v>1.049750688945108</v>
       </c>
       <c r="J11">
-        <v>1.036289560742214</v>
+        <v>1.022347125729288</v>
       </c>
       <c r="K11">
-        <v>1.050981691687663</v>
+        <v>1.044932652492891</v>
       </c>
       <c r="L11">
-        <v>1.043742923357116</v>
+        <v>1.027120797960208</v>
       </c>
       <c r="M11">
-        <v>1.056121880151877</v>
+        <v>1.03983136880019</v>
       </c>
       <c r="N11">
-        <v>1.016079175330187</v>
+        <v>1.011340270308769</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C12">
-        <v>1.029489164311208</v>
+        <v>0.9916544069470132</v>
       </c>
       <c r="D12">
-        <v>1.04731247844866</v>
+        <v>1.029834547421586</v>
       </c>
       <c r="E12">
-        <v>1.040023419467094</v>
+        <v>1.011624342902296</v>
       </c>
       <c r="F12">
-        <v>1.052435055498815</v>
+        <v>1.024503817735608</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.041455081629945</v>
+        <v>1.049425618847551</v>
       </c>
       <c r="J12">
-        <v>1.03618300598035</v>
+        <v>1.021816215580966</v>
       </c>
       <c r="K12">
-        <v>1.050882562933505</v>
+        <v>1.044411648261682</v>
       </c>
       <c r="L12">
-        <v>1.043620445993293</v>
+        <v>1.026532176727643</v>
       </c>
       <c r="M12">
-        <v>1.055986452480572</v>
+        <v>1.039176153427502</v>
       </c>
       <c r="N12">
-        <v>1.01604367415652</v>
+        <v>1.0111628134698</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C13">
-        <v>1.029530684950973</v>
+        <v>0.9918718561310474</v>
       </c>
       <c r="D13">
-        <v>1.04734337798095</v>
+        <v>1.029991530397092</v>
       </c>
       <c r="E13">
-        <v>1.040059419302325</v>
+        <v>1.011797360814951</v>
       </c>
       <c r="F13">
-        <v>1.052473709959787</v>
+        <v>1.024690503818235</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.041465006624573</v>
+        <v>1.049495567000395</v>
       </c>
       <c r="J13">
-        <v>1.036205861910402</v>
+        <v>1.021930346644771</v>
       </c>
       <c r="K13">
-        <v>1.050903828859147</v>
+        <v>1.044523662431458</v>
       </c>
       <c r="L13">
-        <v>1.043646714970079</v>
+        <v>1.026658692155229</v>
       </c>
       <c r="M13">
-        <v>1.056015499533631</v>
+        <v>1.039316983272472</v>
       </c>
       <c r="N13">
-        <v>1.016051289317635</v>
+        <v>1.011200961781213</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C14">
-        <v>1.029666754277572</v>
+        <v>0.9925826122275708</v>
       </c>
       <c r="D14">
-        <v>1.047444635983965</v>
+        <v>1.030504763916604</v>
       </c>
       <c r="E14">
-        <v>1.040177408399449</v>
+        <v>1.012363115970483</v>
       </c>
       <c r="F14">
-        <v>1.052600396055694</v>
+        <v>1.025300924485508</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.041497492488016</v>
+        <v>1.049723917311226</v>
       </c>
       <c r="J14">
-        <v>1.036280752701386</v>
+        <v>1.022303352490898</v>
       </c>
       <c r="K14">
-        <v>1.050973498790292</v>
+        <v>1.044889701702267</v>
       </c>
       <c r="L14">
-        <v>1.043732798064991</v>
+        <v>1.027072256612161</v>
       </c>
       <c r="M14">
-        <v>1.056110684469905</v>
+        <v>1.039777336144663</v>
       </c>
       <c r="N14">
-        <v>1.016076240810326</v>
+        <v>1.011325639086379</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C15">
-        <v>1.029750609314674</v>
+        <v>0.9930192148200453</v>
       </c>
       <c r="D15">
-        <v>1.047507034593264</v>
+        <v>1.030820121246112</v>
       </c>
       <c r="E15">
-        <v>1.040250130569542</v>
+        <v>1.012710820545665</v>
       </c>
       <c r="F15">
-        <v>1.052678475904236</v>
+        <v>1.025676058071982</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.041517481969548</v>
+        <v>1.049863970962536</v>
       </c>
       <c r="J15">
-        <v>1.036326896619364</v>
+        <v>1.022532448030914</v>
       </c>
       <c r="K15">
-        <v>1.051016417470733</v>
+        <v>1.045114481205609</v>
       </c>
       <c r="L15">
-        <v>1.043785844970771</v>
+        <v>1.027326326723711</v>
       </c>
       <c r="M15">
-        <v>1.056169338756149</v>
+        <v>1.040060147332088</v>
       </c>
       <c r="N15">
-        <v>1.01609161412631</v>
+        <v>1.011402214365786</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C16">
-        <v>1.03023895884184</v>
+        <v>0.9955406433674631</v>
       </c>
       <c r="D16">
-        <v>1.047870375793902</v>
+        <v>1.03264263820009</v>
       </c>
       <c r="E16">
-        <v>1.040673788121741</v>
+        <v>1.01472144247254</v>
       </c>
       <c r="F16">
-        <v>1.053133304658265</v>
+        <v>1.027844957178609</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.04163342969172</v>
+        <v>1.05066946227135</v>
       </c>
       <c r="J16">
-        <v>1.036595491905947</v>
+        <v>1.023854956837</v>
       </c>
       <c r="K16">
-        <v>1.051266110655466</v>
+        <v>1.04641148996519</v>
       </c>
       <c r="L16">
-        <v>1.044094725956487</v>
+        <v>1.028793975853727</v>
       </c>
       <c r="M16">
-        <v>1.056510848323079</v>
+        <v>1.041693769408354</v>
       </c>
       <c r="N16">
-        <v>1.01618109123399</v>
+        <v>1.011844262518621</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C17">
-        <v>1.030545529978572</v>
+        <v>0.9971051942749786</v>
       </c>
       <c r="D17">
-        <v>1.048098424326771</v>
+        <v>1.033774591885119</v>
       </c>
       <c r="E17">
-        <v>1.040939873010456</v>
+        <v>1.015971271074024</v>
       </c>
       <c r="F17">
-        <v>1.05341893099555</v>
+        <v>1.029192878154061</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.041705807836144</v>
+        <v>1.051166303296916</v>
       </c>
       <c r="J17">
-        <v>1.036763989135365</v>
+        <v>1.024675071921789</v>
       </c>
       <c r="K17">
-        <v>1.051422636600775</v>
+        <v>1.047215257941192</v>
       </c>
       <c r="L17">
-        <v>1.044288587688978</v>
+        <v>1.029704943539869</v>
       </c>
       <c r="M17">
-        <v>1.056725169161483</v>
+        <v>1.042707705356933</v>
       </c>
       <c r="N17">
-        <v>1.016237215490421</v>
+        <v>1.012118383302292</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C18">
-        <v>1.030724434469759</v>
+        <v>0.9980117533853431</v>
       </c>
       <c r="D18">
-        <v>1.048231488858317</v>
+        <v>1.034430854259758</v>
       </c>
       <c r="E18">
-        <v>1.041095196129485</v>
+        <v>1.016696257343686</v>
       </c>
       <c r="F18">
-        <v>1.053585648136212</v>
+        <v>1.029974657621376</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.041747897339369</v>
+        <v>1.051453107408481</v>
       </c>
       <c r="J18">
-        <v>1.036862275501515</v>
+        <v>1.025150085287957</v>
       </c>
       <c r="K18">
-        <v>1.051513898997492</v>
+        <v>1.047680602706255</v>
       </c>
       <c r="L18">
-        <v>1.044401702671205</v>
+        <v>1.030232883480525</v>
       </c>
       <c r="M18">
-        <v>1.056850214655786</v>
+        <v>1.043295298692514</v>
       </c>
       <c r="N18">
-        <v>1.016269950807717</v>
+        <v>1.012277153472213</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C19">
-        <v>1.030785450931185</v>
+        <v>0.9983198586528661</v>
       </c>
       <c r="D19">
-        <v>1.048276868447732</v>
+        <v>1.034653953163292</v>
       </c>
       <c r="E19">
-        <v>1.041148177641015</v>
+        <v>1.016942785256876</v>
       </c>
       <c r="F19">
-        <v>1.05364251400107</v>
+        <v>1.030240479517823</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.041762227127161</v>
+        <v>1.05155039596193</v>
       </c>
       <c r="J19">
-        <v>1.03689578938172</v>
+        <v>1.025311490903077</v>
       </c>
       <c r="K19">
-        <v>1.051545010871066</v>
+        <v>1.047838688280861</v>
       </c>
       <c r="L19">
-        <v>1.044440278474748</v>
+        <v>1.030412324674177</v>
       </c>
       <c r="M19">
-        <v>1.056892857950017</v>
+        <v>1.043495011744309</v>
       </c>
       <c r="N19">
-        <v>1.016281112518349</v>
+        <v>1.012331101951753</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C20">
-        <v>1.030512628811835</v>
+        <v>0.9969379581527683</v>
       </c>
       <c r="D20">
-        <v>1.048073951930298</v>
+        <v>1.033653557963213</v>
       </c>
       <c r="E20">
-        <v>1.040911312161205</v>
+        <v>1.015837593716762</v>
       </c>
       <c r="F20">
-        <v>1.053388273964312</v>
+        <v>1.029048720255324</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.041698055521608</v>
+        <v>1.051113307624531</v>
       </c>
       <c r="J20">
-        <v>1.036745910472617</v>
+        <v>1.024587428816561</v>
       </c>
       <c r="K20">
-        <v>1.051405846616304</v>
+        <v>1.047129382393857</v>
       </c>
       <c r="L20">
-        <v>1.044267784143903</v>
+        <v>1.029607559710133</v>
       </c>
       <c r="M20">
-        <v>1.056702170850172</v>
+        <v>1.042599316146935</v>
       </c>
       <c r="N20">
-        <v>1.016231193989983</v>
+        <v>1.012089089022091</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C21">
-        <v>1.029626681450275</v>
+        <v>0.992373587587273</v>
       </c>
       <c r="D21">
-        <v>1.047414815894719</v>
+        <v>1.030353809598679</v>
       </c>
       <c r="E21">
-        <v>1.040142658299028</v>
+        <v>1.012196698133908</v>
       </c>
       <c r="F21">
-        <v>1.052563085078385</v>
+        <v>1.025121372741642</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.041487931652965</v>
+        <v>1.049656807508973</v>
       </c>
       <c r="J21">
-        <v>1.036258698971338</v>
+        <v>1.022193663114759</v>
       </c>
       <c r="K21">
-        <v>1.050952984242403</v>
+        <v>1.044782068704799</v>
       </c>
       <c r="L21">
-        <v>1.043707447013411</v>
+        <v>1.026950626858847</v>
       </c>
       <c r="M21">
-        <v>1.056082653270052</v>
+        <v>1.039641946485434</v>
       </c>
       <c r="N21">
-        <v>1.016068893242194</v>
+        <v>1.011288975372225</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C22">
-        <v>1.02907044577119</v>
+        <v>0.9894466000657237</v>
       </c>
       <c r="D22">
-        <v>1.047000835055967</v>
+        <v>1.028241638733266</v>
       </c>
       <c r="E22">
-        <v>1.039660473400191</v>
+        <v>1.009869494710854</v>
       </c>
       <c r="F22">
-        <v>1.052045318000175</v>
+        <v>1.022610114381208</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.041354676732488</v>
+        <v>1.048713184702496</v>
       </c>
       <c r="J22">
-        <v>1.035952422346978</v>
+        <v>1.020657083927404</v>
       </c>
       <c r="K22">
-        <v>1.05066793328199</v>
+        <v>1.04327364337478</v>
       </c>
       <c r="L22">
-        <v>1.043355500605696</v>
+        <v>1.025247938085234</v>
       </c>
       <c r="M22">
-        <v>1.055693472929137</v>
+        <v>1.037746584436537</v>
       </c>
       <c r="N22">
-        <v>1.01596684258765</v>
+        <v>1.010775375261597</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C23">
-        <v>1.029365240870194</v>
+        <v>0.9910038215274296</v>
       </c>
       <c r="D23">
-        <v>1.047220251324566</v>
+        <v>1.0293649723025</v>
       </c>
       <c r="E23">
-        <v>1.039915983932153</v>
+        <v>1.011106885548263</v>
       </c>
       <c r="F23">
-        <v>1.052319694705453</v>
+        <v>1.023945458010505</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.041425425595434</v>
+        <v>1.04921610233871</v>
       </c>
       <c r="J23">
-        <v>1.03611477993596</v>
+        <v>1.021474710846887</v>
       </c>
       <c r="K23">
-        <v>1.050819073849615</v>
+        <v>1.044076437506693</v>
       </c>
       <c r="L23">
-        <v>1.043542039418112</v>
+        <v>1.026153686494167</v>
       </c>
       <c r="M23">
-        <v>1.055899752429003</v>
+        <v>1.038754836394746</v>
       </c>
       <c r="N23">
-        <v>1.016020941949926</v>
+        <v>1.011048665625216</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C24">
-        <v>1.030527495165124</v>
+        <v>0.9970135435213692</v>
       </c>
       <c r="D24">
-        <v>1.048085009805822</v>
+        <v>1.033708260288147</v>
       </c>
       <c r="E24">
-        <v>1.040924217208155</v>
+        <v>1.015898009157571</v>
       </c>
       <c r="F24">
-        <v>1.053402126198595</v>
+        <v>1.029113872705639</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.041701558852752</v>
+        <v>1.051137263333637</v>
       </c>
       <c r="J24">
-        <v>1.036754079427528</v>
+        <v>1.024627041288971</v>
       </c>
       <c r="K24">
-        <v>1.051413433400675</v>
+        <v>1.047168196597462</v>
       </c>
       <c r="L24">
-        <v>1.044277184251039</v>
+        <v>1.029651573800854</v>
       </c>
       <c r="M24">
-        <v>1.056712562686807</v>
+        <v>1.042648304349561</v>
       </c>
       <c r="N24">
-        <v>1.016233914850029</v>
+        <v>1.012102329302453</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.031879622050186</v>
+        <v>1.003752785796697</v>
       </c>
       <c r="D25">
-        <v>1.049090376606059</v>
+        <v>1.0385927084181</v>
       </c>
       <c r="E25">
-        <v>1.042098927522726</v>
+        <v>1.021301064763761</v>
       </c>
       <c r="F25">
-        <v>1.054662774994585</v>
+        <v>1.034938249363372</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.042016993373013</v>
+        <v>1.053249576067945</v>
       </c>
       <c r="J25">
-        <v>1.037496133532618</v>
+        <v>1.02815451042061</v>
       </c>
       <c r="K25">
-        <v>1.052101715549798</v>
+        <v>1.050620069679515</v>
       </c>
       <c r="L25">
-        <v>1.04513179176454</v>
+        <v>1.033577469393075</v>
       </c>
       <c r="M25">
-        <v>1.057657180477952</v>
+        <v>1.047017366693949</v>
       </c>
       <c r="N25">
-        <v>1.016481016567111</v>
+        <v>1.01328131834035</v>
       </c>
     </row>
   </sheetData>
